--- a/raw_data/20200818_saline/20200818_Sensor2_Test_72.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_72.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09343C2B-23E5-4010-81DD-9BEA39B1C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>64273.091894</v>
+        <v>64273.091893999997</v>
       </c>
       <c r="B2" s="1">
-        <v>17.853637</v>
+        <v>17.853636999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.590000</v>
+        <v>1242.5899999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.295000</v>
+        <v>-311.29500000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>64283.773735</v>
+        <v>64283.773735000002</v>
       </c>
       <c r="G2" s="1">
-        <v>17.856604</v>
+        <v>17.856604000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.470000</v>
+        <v>1268.47</v>
       </c>
       <c r="I2" s="1">
-        <v>-268.797000</v>
+        <v>-268.79700000000003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>64294.224440</v>
+        <v>64294.224439999998</v>
       </c>
       <c r="L2" s="1">
-        <v>17.859507</v>
+        <v>17.859507000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.660000</v>
+        <v>1305.6600000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-206.130000</v>
+        <v>-206.13</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>64304.509482</v>
+        <v>64304.509482000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.862364</v>
+        <v>17.862363999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.080000</v>
+        <v>1318.08</v>
       </c>
       <c r="S2" s="1">
-        <v>-187.743000</v>
+        <v>-187.74299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>64315.048013</v>
       </c>
       <c r="V2" s="1">
-        <v>17.865291</v>
+        <v>17.865290999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.690000</v>
+        <v>1331.69</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.784000</v>
+        <v>-173.78399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>64325.170865</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.868103</v>
+        <v>17.868103000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.550000</v>
+        <v>1349.55</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.146000</v>
+        <v>-171.14599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>64335.408754</v>
+        <v>64335.408753999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.870947</v>
+        <v>17.870947000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.650000</v>
+        <v>1362.65</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.488000</v>
+        <v>-180.488</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>64345.513255</v>
+        <v>64345.513254999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.873754</v>
+        <v>17.873754000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.110000</v>
+        <v>1384.11</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.149000</v>
+        <v>-210.149</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>64356.047817</v>
+        <v>64356.047816999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.876680</v>
+        <v>17.87668</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.480000</v>
+        <v>1406.48</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.498000</v>
+        <v>-253.49799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>64367.085256</v>
+        <v>64367.085255999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.879746</v>
+        <v>17.879746000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.757000</v>
+        <v>-312.75700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>64378.162441</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.882823</v>
+        <v>17.882822999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.620000</v>
+        <v>1451.62</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.132000</v>
+        <v>-364.13200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>64389.094732</v>
+        <v>64389.094731999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.885860</v>
+        <v>17.885860000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.800000</v>
+        <v>1538.8</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.630000</v>
+        <v>-608.63</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>64400.149565</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.888930</v>
+        <v>17.888929999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.350000</v>
+        <v>1695.35</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.420000</v>
+        <v>-1045.42</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>64410.909812</v>
+        <v>64410.909811999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.891919</v>
+        <v>17.891919000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1992.490000</v>
+        <v>1992.49</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1798.940000</v>
+        <v>-1798.94</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>64421.550447</v>
+        <v>64421.550447000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.894875</v>
+        <v>17.894874999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2380.600000</v>
+        <v>2380.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2662.520000</v>
+        <v>-2662.52</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>64432.346402</v>
+        <v>64432.346402000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.897874</v>
+        <v>17.897874000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2866.340000</v>
+        <v>2866.34</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3605.220000</v>
+        <v>-3605.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>64443.336723</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.900927</v>
+        <v>17.900926999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.370000</v>
+        <v>4280.37</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5857.340000</v>
+        <v>-5857.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>64273.757027</v>
       </c>
@@ -738,300 +1154,300 @@
         <v>17.853821</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="D3" s="1">
-        <v>-311.370000</v>
+        <v>-311.37</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>64284.191367</v>
+        <v>64284.191366999999</v>
       </c>
       <c r="G3" s="1">
-        <v>17.856720</v>
+        <v>17.856719999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.690000</v>
+        <v>1268.69</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.768000</v>
+        <v>-268.76799999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>64294.647528</v>
+        <v>64294.647528000001</v>
       </c>
       <c r="L3" s="1">
         <v>17.859624</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.810000</v>
+        <v>1305.81</v>
       </c>
       <c r="N3" s="1">
-        <v>-206.286000</v>
+        <v>-206.286</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>64304.862171</v>
+        <v>64304.862171000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.862462</v>
+        <v>17.862462000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.070000</v>
+        <v>1318.07</v>
       </c>
       <c r="S3" s="1">
-        <v>-187.733000</v>
+        <v>-187.733</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>64315.407582</v>
       </c>
       <c r="V3" s="1">
-        <v>17.865391</v>
+        <v>17.865390999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.680000</v>
+        <v>1331.68</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.722000</v>
+        <v>-173.72200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>64325.556719</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.868210</v>
+        <v>17.868210000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.530000</v>
+        <v>1349.53</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.007000</v>
+        <v>-171.00700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>64335.834854</v>
+        <v>64335.834854000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.871065</v>
+        <v>17.871065000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.960000</v>
+        <v>1362.96</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.715000</v>
+        <v>-180.715</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>64345.924436</v>
+        <v>64345.924436000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.873868</v>
+        <v>17.873868000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.150000</v>
+        <v>-210.15</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>64356.484758</v>
+        <v>64356.484757999999</v>
       </c>
       <c r="AP3" s="1">
         <v>17.876801</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.503000</v>
+        <v>-253.50299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>64367.453331</v>
+        <v>64367.453330999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.879848</v>
+        <v>17.879847999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.780000</v>
+        <v>1431.78</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.772000</v>
+        <v>-312.77199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>64378.523002</v>
+        <v>64378.523002000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.882923</v>
+        <v>17.882923000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.153000</v>
+        <v>-364.15300000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>64389.461770</v>
+        <v>64389.461770000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.885962</v>
+        <v>17.885961999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.567000</v>
+        <v>-608.56700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>64400.568721</v>
+        <v>64400.568721000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.889047</v>
+        <v>17.889047000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.260000</v>
+        <v>1695.26</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.390000</v>
+        <v>-1045.3900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>64411.333853</v>
+        <v>64411.333852999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.892037</v>
+        <v>17.892036999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1992.360000</v>
+        <v>1992.36</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1799.300000</v>
+        <v>-1799.3</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>64422.044992</v>
+        <v>64422.044992000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.895012</v>
+        <v>17.895012000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2380.880000</v>
+        <v>2380.88</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2662.720000</v>
+        <v>-2662.72</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>64432.812114</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.898003</v>
+        <v>17.898002999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2865.800000</v>
+        <v>2865.8</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3605.680000</v>
+        <v>-3605.68</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>64443.933941</v>
+        <v>64443.933941000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.901093</v>
+        <v>17.901092999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.530000</v>
+        <v>4269.53</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5848.640000</v>
+        <v>-5848.64</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>64274.132499</v>
+        <v>64274.132498999999</v>
       </c>
       <c r="B4" s="1">
-        <v>17.853926</v>
+        <v>17.853926000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.186000</v>
+        <v>-311.18599999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64284.535708</v>
+        <v>64284.535708000003</v>
       </c>
       <c r="G4" s="1">
-        <v>17.856815</v>
+        <v>17.856815000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="I4" s="1">
-        <v>-268.264000</v>
+        <v>-268.26400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>64294.991751</v>
+        <v>64294.991751000001</v>
       </c>
       <c r="L4" s="1">
-        <v>17.859720</v>
+        <v>17.859719999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N4" s="1">
-        <v>-205.867000</v>
+        <v>-205.86699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>64305.208843</v>
@@ -1040,617 +1456,617 @@
         <v>17.862558</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S4" s="1">
-        <v>-187.642000</v>
+        <v>-187.642</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>64315.841084</v>
       </c>
       <c r="V4" s="1">
-        <v>17.865511</v>
+        <v>17.865511000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.714000</v>
+        <v>-173.714</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>64325.993694</v>
+        <v>64325.993693999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.868332</v>
+        <v>17.868331999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.410000</v>
+        <v>1349.41</v>
       </c>
       <c r="AC4" s="1">
-        <v>-171.315000</v>
+        <v>-171.315</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>64336.137874</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.871149</v>
+        <v>17.871148999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.690000</v>
+        <v>1362.69</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.715000</v>
+        <v>-180.715</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>64346.243365</v>
+        <v>64346.243365000002</v>
       </c>
       <c r="AK4" s="1">
         <v>17.873956</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.133000</v>
+        <v>-210.13300000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>64356.848854</v>
+        <v>64356.848854000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.876902</v>
+        <v>17.876902000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.430000</v>
+        <v>1406.43</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.503000</v>
+        <v>-253.50299999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>64367.817352</v>
+        <v>64367.817351999998</v>
       </c>
       <c r="AU4" s="1">
         <v>17.879949</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.768000</v>
+        <v>-312.76799999999997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>64378.881608</v>
+        <v>64378.881608000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.883023</v>
+        <v>17.883023000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.630000</v>
+        <v>1451.63</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.196000</v>
+        <v>-364.19600000000003</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>64390.183984</v>
+        <v>64390.183984000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.886162</v>
+        <v>17.886161999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.790000</v>
+        <v>1538.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.606000</v>
+        <v>-608.60599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>64400.927326</v>
+        <v>64400.927325999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>17.889146</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>64411.740903</v>
+        <v>64411.740902999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.892150</v>
+        <v>17.892150000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.110000</v>
+        <v>1992.11</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1799.390000</v>
+        <v>-1799.39</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>64422.473176</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.895131</v>
+        <v>17.895130999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2380.860000</v>
+        <v>2380.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2662.550000</v>
+        <v>-2662.55</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>64433.569008</v>
+        <v>64433.569007999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.898214</v>
+        <v>17.898213999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2865.820000</v>
+        <v>2865.82</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3604.750000</v>
+        <v>-3604.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>64444.779585</v>
+        <v>64444.779584999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.901328</v>
+        <v>17.901327999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4278.470000</v>
+        <v>4278.47</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5858.270000</v>
+        <v>-5858.27</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>64274.473251</v>
+        <v>64274.473251000003</v>
       </c>
       <c r="B5" s="1">
-        <v>17.854020</v>
+        <v>17.854019999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="D5" s="1">
-        <v>-311.119000</v>
+        <v>-311.11900000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>64284.879318</v>
+        <v>64284.879317999999</v>
       </c>
       <c r="G5" s="1">
         <v>17.856911</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.530000</v>
+        <v>1268.53</v>
       </c>
       <c r="I5" s="1">
-        <v>-269.049000</v>
+        <v>-269.04899999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>64295.340968</v>
+        <v>64295.340967999997</v>
       </c>
       <c r="L5" s="1">
         <v>17.859817</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.680000</v>
+        <v>1305.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-206.005000</v>
+        <v>-206.005</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>64305.633767</v>
+        <v>64305.633766999999</v>
       </c>
       <c r="Q5" s="1">
         <v>17.862676</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S5" s="1">
-        <v>-187.641000</v>
+        <v>-187.64099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>64316.118349</v>
+        <v>64316.118348999997</v>
       </c>
       <c r="V5" s="1">
-        <v>17.865588</v>
+        <v>17.865587999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.680000</v>
+        <v>1331.68</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.807000</v>
+        <v>-173.80699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>64326.273439</v>
+        <v>64326.273438999997</v>
       </c>
       <c r="AA5" s="1">
         <v>17.868409</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.560000</v>
+        <v>1349.56</v>
       </c>
       <c r="AC5" s="1">
-        <v>-171.178000</v>
+        <v>-171.178</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>64336.481600</v>
+        <v>64336.481599999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.871245</v>
+        <v>17.871244999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.970000</v>
+        <v>1362.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.583000</v>
+        <v>-180.583</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>64346.599493</v>
+        <v>64346.599493000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.874055</v>
+        <v>17.874054999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.100000</v>
+        <v>1384.1</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.135000</v>
+        <v>-210.13499999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>64357.205446</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.877002</v>
+        <v>17.877002000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.400000</v>
+        <v>1406.4</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.479000</v>
+        <v>-253.47900000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>64368.545975</v>
+        <v>64368.545975000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.880152</v>
+        <v>17.880151999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.760000</v>
+        <v>1431.76</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.758000</v>
+        <v>-312.75799999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>64379.601304</v>
+        <v>64379.601304000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.883223</v>
+        <v>17.883223000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.640000</v>
+        <v>1451.64</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.147000</v>
+        <v>-364.14699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>64390.570330</v>
+        <v>64390.570330000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.886270</v>
+        <v>17.88627</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.810000</v>
+        <v>1538.81</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.552000</v>
+        <v>-608.55200000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>64401.300283</v>
+        <v>64401.300282999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.889250</v>
+        <v>17.889250000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.420000</v>
+        <v>-1045.42</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>64412.137374</v>
+        <v>64412.137373999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.892260</v>
+        <v>17.89226</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.070000</v>
+        <v>1992.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1799.200000</v>
+        <v>-1799.2</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>64423.190756</v>
+        <v>64423.190756000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.895331</v>
+        <v>17.895330999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2381.120000</v>
+        <v>2381.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2662.890000</v>
+        <v>-2662.89</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>64433.692513</v>
+        <v>64433.692513000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.898248</v>
+        <v>17.898247999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2865.620000</v>
+        <v>2865.62</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3605.170000</v>
+        <v>-3605.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>64445.017704</v>
+        <v>64445.017703999998</v>
       </c>
       <c r="CD5" s="1">
         <v>17.901394</v>
       </c>
       <c r="CE5" s="1">
-        <v>4286.650000</v>
+        <v>4286.6499999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5847.600000</v>
+        <v>-5847.6</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>64274.816482</v>
+        <v>64274.816482000002</v>
       </c>
       <c r="B6" s="1">
-        <v>17.854116</v>
+        <v>17.854116000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.375000</v>
+        <v>-311.375</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>64285.308894</v>
+        <v>64285.308894000002</v>
       </c>
       <c r="G6" s="1">
-        <v>17.857030</v>
+        <v>17.857030000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.530000</v>
+        <v>1269.53</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.226000</v>
+        <v>-269.226</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>64295.761544</v>
+        <v>64295.761544000001</v>
       </c>
       <c r="L6" s="1">
-        <v>17.859934</v>
+        <v>17.859933999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.920000</v>
+        <v>1305.92</v>
       </c>
       <c r="N6" s="1">
-        <v>-206.074000</v>
+        <v>-206.07400000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>64305.908200</v>
+        <v>64305.908199999998</v>
       </c>
       <c r="Q6" s="1">
         <v>17.862752</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.180000</v>
+        <v>1318.18</v>
       </c>
       <c r="S6" s="1">
-        <v>-187.620000</v>
+        <v>-187.62</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>64316.467563</v>
+        <v>64316.467562999998</v>
       </c>
       <c r="V6" s="1">
-        <v>17.865685</v>
+        <v>17.865684999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.840000</v>
+        <v>1331.84</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.755000</v>
+        <v>-173.755</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>64326.623127</v>
+        <v>64326.623126999999</v>
       </c>
       <c r="AA6" s="1">
         <v>17.868506</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.540000</v>
+        <v>1349.54</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.169000</v>
+        <v>-171.16900000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>64336.822883</v>
+        <v>64336.822883000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.871340</v>
+        <v>17.87134</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.760000</v>
+        <v>1362.76</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.618000</v>
+        <v>-180.61799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>64347.317203</v>
+        <v>64347.317202999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.874255</v>
+        <v>17.874255000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.145000</v>
+        <v>-210.14500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>64357.926171</v>
+        <v>64357.926170999999</v>
       </c>
       <c r="AP6" s="1">
         <v>17.877202</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.488000</v>
+        <v>-253.488</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>64368.913046</v>
+        <v>64368.913046000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.880254</v>
+        <v>17.880254000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.752000</v>
+        <v>-312.75200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>64379.959918</v>
@@ -1659,106 +2075,106 @@
         <v>17.883322</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.154000</v>
+        <v>-364.154</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>64390.930425</v>
+        <v>64390.930424999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.886370</v>
+        <v>17.886369999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.790000</v>
+        <v>1538.79</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.634000</v>
+        <v>-608.63400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>64401.987739</v>
+        <v>64401.987738999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.889441</v>
+        <v>17.889441000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.400000</v>
+        <v>-1045.4000000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>64412.876941</v>
+        <v>64412.876941000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.892466</v>
+        <v>17.892465999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.100000</v>
+        <v>1992.1</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1799.270000</v>
+        <v>-1799.27</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>64423.316702</v>
+        <v>64423.316701999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.895366</v>
+        <v>17.895365999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2381.180000</v>
+        <v>2381.1799999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2662.540000</v>
+        <v>-2662.54</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>64434.131967</v>
+        <v>64434.131967000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.898370</v>
+        <v>17.89837</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2865.340000</v>
+        <v>2865.34</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3605.200000</v>
+        <v>-3605.2</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>64445.551393</v>
+        <v>64445.551393000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.901542</v>
+        <v>17.901541999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4267.850000</v>
+        <v>4267.8500000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5846.490000</v>
+        <v>-5846.49</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>64275.248497</v>
       </c>
@@ -1766,256 +2182,256 @@
         <v>17.854236</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.550000</v>
+        <v>1242.55</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.645000</v>
+        <v>-311.64499999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>64285.576693</v>
+        <v>64285.576693000003</v>
       </c>
       <c r="G7" s="1">
-        <v>17.857105</v>
+        <v>17.857105000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="I7" s="1">
-        <v>-269.863000</v>
+        <v>-269.863</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>64296.032358</v>
+        <v>64296.032357999997</v>
       </c>
       <c r="L7" s="1">
-        <v>17.860009</v>
+        <v>17.860009000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N7" s="1">
-        <v>-206.161000</v>
+        <v>-206.161</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>64306.256888</v>
+        <v>64306.256888000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.862849</v>
+        <v>17.862849000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="S7" s="1">
-        <v>-187.660000</v>
+        <v>-187.66</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>64316.805802</v>
+        <v>64316.805802000003</v>
       </c>
       <c r="V7" s="1">
         <v>17.865779</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.810000</v>
+        <v>-173.81</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>64326.971806</v>
+        <v>64326.971806000001</v>
       </c>
       <c r="AA7" s="1">
         <v>17.868603</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.480000</v>
+        <v>1349.48</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.089000</v>
+        <v>-171.089</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>64337.508847</v>
+        <v>64337.508846999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.871530</v>
+        <v>17.87153</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.491000</v>
+        <v>-180.49100000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>64347.642579</v>
+        <v>64347.642578999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.874345</v>
+        <v>17.874345000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.148000</v>
+        <v>-210.148</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>64358.286227</v>
+        <v>64358.286226999997</v>
       </c>
       <c r="AP7" s="1">
         <v>17.877302</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.430000</v>
+        <v>1406.43</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.507000</v>
+        <v>-253.50700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>64369.275093</v>
+        <v>64369.275092999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.880354</v>
+        <v>17.880354000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.780000</v>
+        <v>1431.78</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.741000</v>
+        <v>-312.74099999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>64380.317526</v>
+        <v>64380.317525999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.883422</v>
+        <v>17.883421999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.136000</v>
+        <v>-364.13600000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>64391.624327</v>
+        <v>64391.624326999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.886562</v>
+        <v>17.886562000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.770000</v>
+        <v>1538.77</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.570000</v>
+        <v>-608.57000000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>64402.454969</v>
+        <v>64402.454968999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>17.889571</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.190000</v>
+        <v>1695.19</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.340000</v>
+        <v>-1045.3399999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>64412.990987</v>
+        <v>64412.990986999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.892497</v>
+        <v>17.892496999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.110000</v>
+        <v>1992.11</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1799.300000</v>
+        <v>-1799.3</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>64423.755198</v>
+        <v>64423.755197999999</v>
       </c>
       <c r="BT7" s="1">
         <v>17.895488</v>
       </c>
       <c r="BU7" s="1">
-        <v>2381.470000</v>
+        <v>2381.4699999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2662.620000</v>
+        <v>-2662.62</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>64434.586303</v>
+        <v>64434.586302999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.898496</v>
+        <v>17.898496000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2865.390000</v>
+        <v>2865.39</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3605.080000</v>
+        <v>-3605.08</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>64446.091042</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.901692</v>
+        <v>17.901692000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.740000</v>
+        <v>4280.74</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5857.640000</v>
+        <v>-5857.64</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>64275.508897</v>
       </c>
@@ -2023,193 +2439,193 @@
         <v>17.854308</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.600000</v>
+        <v>1242.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.450000</v>
+        <v>-311.45</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>64285.919960</v>
+        <v>64285.919959999999</v>
       </c>
       <c r="G8" s="1">
-        <v>17.857200</v>
+        <v>17.857199999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.160000</v>
+        <v>1269.1600000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-269.489000</v>
+        <v>-269.48899999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>64296.376085</v>
+        <v>64296.376085000004</v>
       </c>
       <c r="L8" s="1">
         <v>17.860104</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.730000</v>
+        <v>1305.73</v>
       </c>
       <c r="N8" s="1">
-        <v>-206.115000</v>
+        <v>-206.11500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>64306.608056</v>
+        <v>64306.608055999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.862947</v>
+        <v>17.862946999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S8" s="1">
-        <v>-187.667000</v>
+        <v>-187.667</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>64317.492267</v>
+        <v>64317.492267000001</v>
       </c>
       <c r="V8" s="1">
-        <v>17.865970</v>
+        <v>17.865970000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.760000</v>
+        <v>1331.76</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.705000</v>
+        <v>-173.70500000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>64327.668685</v>
+        <v>64327.668684999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.868797</v>
+        <v>17.868797000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.540000</v>
+        <v>1349.54</v>
       </c>
       <c r="AC8" s="1">
-        <v>-171.150000</v>
+        <v>-171.15</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>64337.853040</v>
+        <v>64337.853040000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.871626</v>
+        <v>17.871625999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.880000</v>
+        <v>1362.88</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.597000</v>
+        <v>-180.59700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>64347.991265</v>
+        <v>64347.991264999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.874442</v>
+        <v>17.874441999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.100000</v>
+        <v>1384.1</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.153000</v>
+        <v>-210.15299999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>64358.648307</v>
+        <v>64358.648307000003</v>
       </c>
       <c r="AP8" s="1">
         <v>17.877402</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.450000</v>
+        <v>1406.45</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.495000</v>
+        <v>-253.495</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>64369.953158</v>
+        <v>64369.953157999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.880543</v>
+        <v>17.880542999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.730000</v>
+        <v>1431.73</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.728000</v>
+        <v>-312.72800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>64381.054085</v>
+        <v>64381.054085000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>17.883626</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.114000</v>
+        <v>-364.11399999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>64392.045431</v>
+        <v>64392.045430999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.886679</v>
+        <v>17.886679000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.780000</v>
+        <v>1538.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.545000</v>
+        <v>-608.54499999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>64402.856761</v>
+        <v>64402.856761000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.889682</v>
+        <v>17.889682000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>64413.378891</v>
@@ -2218,180 +2634,180 @@
         <v>17.892605</v>
       </c>
       <c r="BP8" s="1">
-        <v>1991.900000</v>
+        <v>1991.9</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1799.130000</v>
+        <v>-1799.13</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>64424.178749</v>
+        <v>64424.178748999999</v>
       </c>
       <c r="BT8" s="1">
         <v>17.895605</v>
       </c>
       <c r="BU8" s="1">
-        <v>2381.520000</v>
+        <v>2381.52</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2662.470000</v>
+        <v>-2662.47</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>64435.037167</v>
+        <v>64435.037167000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.898621</v>
+        <v>17.898620999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.780000</v>
+        <v>2865.78</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3604.350000</v>
+        <v>-3604.35</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>64446.632638</v>
+        <v>64446.632638000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.901842</v>
+        <v>17.901841999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4279.680000</v>
+        <v>4279.68</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5837.970000</v>
+        <v>-5837.97</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>64275.855600</v>
+        <v>64275.855600000003</v>
       </c>
       <c r="B9" s="1">
-        <v>17.854404</v>
+        <v>17.854403999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.810000</v>
+        <v>1242.81</v>
       </c>
       <c r="D9" s="1">
-        <v>-311.552000</v>
+        <v>-311.55200000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>64286.262659</v>
       </c>
       <c r="G9" s="1">
-        <v>17.857295</v>
+        <v>17.857295000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.040000</v>
+        <v>1269.04</v>
       </c>
       <c r="I9" s="1">
-        <v>-268.723000</v>
+        <v>-268.72300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>64296.722826</v>
+        <v>64296.722825999997</v>
       </c>
       <c r="L9" s="1">
         <v>17.860201</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.780000</v>
+        <v>1305.78</v>
       </c>
       <c r="N9" s="1">
-        <v>-206.214000</v>
+        <v>-206.214</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>64307.301960</v>
+        <v>64307.301959999997</v>
       </c>
       <c r="Q9" s="1">
         <v>17.863139</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.040000</v>
+        <v>1318.04</v>
       </c>
       <c r="S9" s="1">
-        <v>-187.714000</v>
+        <v>-187.714</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>64317.840458</v>
+        <v>64317.840457999999</v>
       </c>
       <c r="V9" s="1">
-        <v>17.866067</v>
+        <v>17.866067000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.500000</v>
+        <v>1331.5</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.508000</v>
+        <v>-173.50800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>64328.016876</v>
+        <v>64328.016876000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.868894</v>
+        <v>17.868894000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.100000</v>
+        <v>-171.1</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>64338.201728</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.871723</v>
+        <v>17.871722999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.740000</v>
+        <v>1362.74</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.543000</v>
+        <v>-180.54300000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>64348.652463</v>
+        <v>64348.652462999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.874626</v>
+        <v>17.874625999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.118000</v>
+        <v>-210.11799999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>64359.320883</v>
@@ -2400,422 +2816,422 @@
         <v>17.877589</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.430000</v>
+        <v>1406.43</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.471000</v>
+        <v>-253.471</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>64370.368276</v>
+        <v>64370.368276000001</v>
       </c>
       <c r="AU9" s="1">
         <v>17.880658</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.745000</v>
+        <v>-312.745</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>64381.421125</v>
+        <v>64381.421125000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.883728</v>
+        <v>17.883728000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.136000</v>
+        <v>-364.13600000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>64392.406024</v>
+        <v>64392.406024000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.886779</v>
+        <v>17.886779000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.750000</v>
+        <v>1538.75</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.557000</v>
+        <v>-608.55700000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>64403.230248</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.889786</v>
+        <v>17.889786000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.380000</v>
+        <v>-1045.3800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>64413.803435</v>
+        <v>64413.803435000002</v>
       </c>
       <c r="BO9" s="1">
         <v>17.892723</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.120000</v>
+        <v>1992.12</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1799.170000</v>
+        <v>-1799.17</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>64424.607337</v>
+        <v>64424.607337000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.895724</v>
+        <v>17.895724000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2381.800000</v>
+        <v>2381.8000000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2662.520000</v>
+        <v>-2662.52</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>64435.491502</v>
+        <v>64435.491501999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.898748</v>
+        <v>17.898748000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2865.670000</v>
+        <v>2865.67</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3604.200000</v>
+        <v>-3604.2</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>64447.172782</v>
+        <v>64447.172782000001</v>
       </c>
       <c r="CD9" s="1">
         <v>17.901992</v>
       </c>
       <c r="CE9" s="1">
-        <v>4269.650000</v>
+        <v>4269.6499999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5859.470000</v>
+        <v>-5859.47</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>64276.194368</v>
+        <v>64276.194367999997</v>
       </c>
       <c r="B10" s="1">
         <v>17.854498</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.530000</v>
+        <v>1242.53</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.267000</v>
+        <v>-311.267</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>64286.951953</v>
+        <v>64286.951953000003</v>
       </c>
       <c r="G10" s="1">
-        <v>17.857487</v>
+        <v>17.857486999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.640000</v>
+        <v>1268.6400000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-269.392000</v>
+        <v>-269.392</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>64297.429094</v>
+        <v>64297.429093999999</v>
       </c>
       <c r="L10" s="1">
-        <v>17.860397</v>
+        <v>17.860396999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.700000</v>
+        <v>1305.7</v>
       </c>
       <c r="N10" s="1">
-        <v>-205.956000</v>
+        <v>-205.95599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>64307.649654</v>
+        <v>64307.649654000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.863236</v>
+        <v>17.863236000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.040000</v>
+        <v>1318.04</v>
       </c>
       <c r="S10" s="1">
-        <v>-187.674000</v>
+        <v>-187.67400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>64318.180712</v>
+        <v>64318.180712000001</v>
       </c>
       <c r="V10" s="1">
-        <v>17.866161</v>
+        <v>17.866161000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.660000</v>
+        <v>-173.66</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>64328.366593</v>
+        <v>64328.366592999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.868991</v>
+        <v>17.868991000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.420000</v>
+        <v>1349.42</v>
       </c>
       <c r="AC10" s="1">
-        <v>-171.208000</v>
+        <v>-171.208</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>64338.863391</v>
+        <v>64338.863390999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.871906</v>
+        <v>17.871905999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.750000</v>
+        <v>1362.75</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.675000</v>
+        <v>-180.67500000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>64349.037825</v>
+        <v>64349.037824999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.874733</v>
+        <v>17.874732999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.143000</v>
+        <v>-210.143</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>64359.753890</v>
+        <v>64359.75389</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.877709</v>
+        <v>17.877708999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>64370.736309</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.880760</v>
+        <v>17.880759999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.741000</v>
+        <v>-312.74099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>64381.801596</v>
+        <v>64381.801595999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.883834</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.079000</v>
+        <v>-364.07900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>64392.768598</v>
+        <v>64392.768598000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.886880</v>
+        <v>17.886880000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.523000</v>
+        <v>-608.52300000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>64403.657311</v>
+        <v>64403.657311000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.889905</v>
+        <v>17.889904999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.120000</v>
+        <v>1695.12</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.330000</v>
+        <v>-1045.33</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>64414.219615</v>
+        <v>64414.219615000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.892839</v>
+        <v>17.892838999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1991.810000</v>
+        <v>1991.81</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1799.300000</v>
+        <v>-1799.3</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>64425.023931</v>
+        <v>64425.023931000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.895840</v>
+        <v>17.89584</v>
       </c>
       <c r="BU10" s="1">
-        <v>2381.700000</v>
+        <v>2381.6999999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2662.180000</v>
+        <v>-2662.18</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>64435.939885</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.898872</v>
+        <v>17.898872000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2865.100000</v>
+        <v>2865.1</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3603.990000</v>
+        <v>-3603.99</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>64447.711933</v>
+        <v>64447.711932999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.902142</v>
+        <v>17.902142000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4284.680000</v>
+        <v>4284.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5845.440000</v>
+        <v>-5845.44</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>64276.877855</v>
+        <v>64276.877854999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.854688</v>
+        <v>17.854687999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.528000</v>
+        <v>-311.52800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>64287.298801</v>
+        <v>64287.298800999997</v>
       </c>
       <c r="G11" s="1">
-        <v>17.857583</v>
+        <v>17.857583000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.300000</v>
+        <v>1268.3</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.523000</v>
+        <v>-268.52300000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>64297.767365</v>
@@ -2824,722 +3240,722 @@
         <v>17.860491</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.900000</v>
+        <v>1305.9000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.860000</v>
+        <v>-205.86</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>64308.000123</v>
+        <v>64308.000122999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.863333</v>
+        <v>17.863333000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.150000</v>
+        <v>1318.15</v>
       </c>
       <c r="S11" s="1">
-        <v>-187.665000</v>
+        <v>-187.66499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>64318.837416</v>
+        <v>64318.837416000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.866344</v>
+        <v>17.866344000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.622000</v>
+        <v>-173.62200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>64329.037643</v>
+        <v>64329.037643000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.869177</v>
+        <v>17.869177000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.470000</v>
+        <v>1349.47</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.146000</v>
+        <v>-171.14599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>64339.232910</v>
+        <v>64339.232909999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.872009</v>
+        <v>17.872008999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.790000</v>
+        <v>1362.79</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.628000</v>
+        <v>-180.62799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>64349.382543</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.874828</v>
+        <v>17.874828000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.117000</v>
+        <v>-210.11699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>64360.116962</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.877810</v>
+        <v>17.87781</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.471000</v>
+        <v>-253.471</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>64371.099380</v>
+        <v>64371.09938</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.880861</v>
+        <v>17.880860999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.730000</v>
+        <v>1431.73</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.716000</v>
+        <v>-312.71600000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>64382.239525</v>
+        <v>64382.239524999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>17.883955</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.140000</v>
+        <v>-364.14</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>64393.200118</v>
+        <v>64393.200118000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.887000</v>
+        <v>17.887</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.573000</v>
+        <v>-608.57299999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>64403.989127</v>
+        <v>64403.989127000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.889997</v>
+        <v>17.889997000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.280000</v>
+        <v>-1045.28</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>64414.617389</v>
+        <v>64414.617388999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.892949</v>
+        <v>17.892949000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1991.860000</v>
+        <v>1991.86</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1799.000000</v>
+        <v>-1799</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>64425.452476</v>
+        <v>64425.452475999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.895959</v>
+        <v>17.895959000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2381.900000</v>
+        <v>2381.9</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2662.480000</v>
+        <v>-2662.48</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>64436.364956</v>
+        <v>64436.364955999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.898990</v>
+        <v>17.898990000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2864.760000</v>
+        <v>2864.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3604.560000</v>
+        <v>-3604.56</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>64448.423233</v>
+        <v>64448.423233000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.902340</v>
+        <v>17.902339999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4274.790000</v>
+        <v>4274.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5858.200000</v>
+        <v>-5858.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>64277.220097</v>
+        <v>64277.220096999998</v>
       </c>
       <c r="B12" s="1">
-        <v>17.854783</v>
+        <v>17.854783000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="D12" s="1">
-        <v>-311.508000</v>
+        <v>-311.50799999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>64287.646497</v>
+        <v>64287.646497000002</v>
       </c>
       <c r="G12" s="1">
-        <v>17.857680</v>
+        <v>17.857679999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.500000</v>
+        <v>1268.5</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.553000</v>
+        <v>-268.553</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>64298.417744</v>
+        <v>64298.417743999998</v>
       </c>
       <c r="L12" s="1">
-        <v>17.860672</v>
+        <v>17.860672000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.840000</v>
+        <v>1305.8399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-206.085000</v>
+        <v>-206.08500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>64308.664967</v>
+        <v>64308.664966999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.863518</v>
+        <v>17.863517999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.140000</v>
+        <v>1318.14</v>
       </c>
       <c r="S12" s="1">
-        <v>-187.684000</v>
+        <v>-187.684</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>64319.212428</v>
+        <v>64319.212427999999</v>
       </c>
       <c r="V12" s="1">
-        <v>17.866448</v>
+        <v>17.866447999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.510000</v>
+        <v>1331.51</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.705000</v>
+        <v>-173.70500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>64329.411626</v>
+        <v>64329.411626000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.869281</v>
+        <v>17.869281000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.480000</v>
+        <v>1349.48</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.176000</v>
+        <v>-171.17599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>64339.571677</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.872103</v>
+        <v>17.872102999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.640000</v>
+        <v>1362.64</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.448000</v>
+        <v>-180.44800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>64349.735231</v>
+        <v>64349.735230999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.874926</v>
+        <v>17.874925999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.138000</v>
+        <v>-210.13800000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>64360.475605</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.877910</v>
+        <v>17.87791</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.460000</v>
+        <v>1406.46</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.478000</v>
+        <v>-253.47800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>64371.522963</v>
+        <v>64371.522963000003</v>
       </c>
       <c r="AU12" s="1">
         <v>17.880979</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.790000</v>
+        <v>1431.79</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.716000</v>
+        <v>-312.71600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>64382.516788</v>
+        <v>64382.516788000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.884032</v>
+        <v>17.884032000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.119000</v>
+        <v>-364.11900000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>64393.489323</v>
+        <v>64393.489323000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.887080</v>
+        <v>17.887080000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.770000</v>
+        <v>1538.77</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.589000</v>
+        <v>-608.58900000000006</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>64404.377960</v>
+        <v>64404.377959999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.890105</v>
+        <v>17.890104999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.280000</v>
+        <v>-1045.28</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>64415.016152</v>
+        <v>64415.016151999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.893060</v>
+        <v>17.893059999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1991.770000</v>
+        <v>1991.77</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1798.960000</v>
+        <v>-1798.96</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>64425.862202</v>
+        <v>64425.862201999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.896073</v>
+        <v>17.896073000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.060000</v>
+        <v>2382.06</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2662.420000</v>
+        <v>-2662.42</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>64436.788043</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.899108</v>
+        <v>17.899107999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2865.670000</v>
+        <v>2865.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3604.330000</v>
+        <v>-3604.33</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>64448.790236</v>
+        <v>64448.790236000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.902442</v>
+        <v>17.902442000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4274.150000</v>
+        <v>4274.1499999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5860.190000</v>
+        <v>-5860.19</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>64277.563823</v>
+        <v>64277.563822999997</v>
       </c>
       <c r="B13" s="1">
         <v>17.854879</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.530000</v>
+        <v>1242.53</v>
       </c>
       <c r="D13" s="1">
-        <v>-311.377000</v>
+        <v>-311.37700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>64288.304687</v>
+        <v>64288.304687000003</v>
       </c>
       <c r="G13" s="1">
-        <v>17.857862</v>
+        <v>17.857862000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.710000</v>
+        <v>1268.71</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.831000</v>
+        <v>-268.83100000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>64298.802020</v>
+        <v>64298.802020000003</v>
       </c>
       <c r="L13" s="1">
         <v>17.860778</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.800000</v>
+        <v>1305.8</v>
       </c>
       <c r="N13" s="1">
-        <v>-206.058000</v>
+        <v>-206.05799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>64309.045892</v>
+        <v>64309.045892000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.863624</v>
+        <v>17.863624000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.110000</v>
+        <v>1318.11</v>
       </c>
       <c r="S13" s="1">
-        <v>-187.731000</v>
+        <v>-187.73099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>64319.553638</v>
+        <v>64319.553637999998</v>
       </c>
       <c r="V13" s="1">
         <v>17.866543</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.800000</v>
+        <v>1331.8</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.734000</v>
+        <v>-173.73400000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>64329.761801</v>
+        <v>64329.761801000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.869378</v>
+        <v>17.869378000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.340000</v>
+        <v>1349.34</v>
       </c>
       <c r="AC13" s="1">
-        <v>-171.129000</v>
+        <v>-171.12899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>64339.918912</v>
+        <v>64339.918912000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.872200</v>
+        <v>17.872199999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.900000</v>
+        <v>1362.9</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.539000</v>
+        <v>-180.53899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>64350.161263</v>
+        <v>64350.161263000002</v>
       </c>
       <c r="AK13" s="1">
         <v>17.875045</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.100000</v>
+        <v>1384.1</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.140000</v>
+        <v>-210.14</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>64360.899152</v>
+        <v>64360.899151999998</v>
       </c>
       <c r="AP13" s="1">
         <v>17.878028</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.400000</v>
+        <v>1406.4</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.489000</v>
+        <v>-253.489</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>64371.831014</v>
+        <v>64371.831014000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.881064</v>
+        <v>17.881063999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.737000</v>
+        <v>-312.73700000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>64382.878904</v>
+        <v>64382.878903999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.884133</v>
+        <v>17.884132999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.134000</v>
+        <v>-364.13400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>64393.850870</v>
+        <v>64393.850870000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.887181</v>
+        <v>17.887181000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.760000</v>
+        <v>1538.76</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.612000</v>
+        <v>-608.61199999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>64404.752967</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.890209</v>
+        <v>17.890208999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.120000</v>
+        <v>1695.12</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>64415.445192</v>
+        <v>64415.445191999999</v>
       </c>
       <c r="BO13" s="1">
         <v>17.893179</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.010000</v>
+        <v>1992.01</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1799.200000</v>
+        <v>-1799.2</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>64426.294186</v>
+        <v>64426.294185999999</v>
       </c>
       <c r="BT13" s="1">
         <v>17.896193</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.120000</v>
+        <v>2382.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2662.260000</v>
+        <v>-2662.26</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>64437.210667</v>
+        <v>64437.210666999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.899225</v>
+        <v>17.899225000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2865.190000</v>
+        <v>2865.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3603.860000</v>
+        <v>-3603.86</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>64449.312027</v>
@@ -3548,240 +3964,240 @@
         <v>17.902587</v>
       </c>
       <c r="CE13" s="1">
-        <v>4288.180000</v>
+        <v>4288.18</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5849.160000</v>
+        <v>-5849.16</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>64278.221549</v>
+        <v>64278.221549000002</v>
       </c>
       <c r="B14" s="1">
         <v>17.855062</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-311.229000</v>
+        <v>-311.22899999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>64288.685297</v>
+        <v>64288.685297000004</v>
       </c>
       <c r="G14" s="1">
         <v>17.857968</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.460000</v>
+        <v>1269.46</v>
       </c>
       <c r="I14" s="1">
-        <v>-269.701000</v>
+        <v>-269.70100000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>64299.146242</v>
+        <v>64299.146242000003</v>
       </c>
       <c r="L14" s="1">
-        <v>17.860874</v>
+        <v>17.860873999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.740000</v>
+        <v>1305.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-206.046000</v>
+        <v>-206.04599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>64309.393620</v>
+        <v>64309.393620000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.863720</v>
+        <v>17.863720000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.080000</v>
+        <v>1318.08</v>
       </c>
       <c r="S14" s="1">
-        <v>-187.648000</v>
+        <v>-187.648</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>64319.906827</v>
+        <v>64319.906826999999</v>
       </c>
       <c r="V14" s="1">
-        <v>17.866641</v>
+        <v>17.866641000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.800000</v>
+        <v>1331.8</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.707000</v>
+        <v>-173.70699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>64330.109002</v>
+        <v>64330.109001999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.869475</v>
+        <v>17.869475000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.540000</v>
+        <v>1349.54</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.182000</v>
+        <v>-171.18199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>64340.340508</v>
+        <v>64340.340508000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.872317</v>
+        <v>17.872316999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.427000</v>
+        <v>-180.42699999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>64350.434558</v>
+        <v>64350.434558000001</v>
       </c>
       <c r="AK14" s="1">
         <v>17.875121</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.110000</v>
+        <v>1384.11</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.120000</v>
+        <v>-210.12</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>64361.196788</v>
+        <v>64361.196788000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.878110</v>
+        <v>17.87811</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.390000</v>
+        <v>1406.39</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.471000</v>
+        <v>-253.471</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>64372.193058</v>
+        <v>64372.193057999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.881165</v>
+        <v>17.881164999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.761000</v>
+        <v>-312.76100000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>64383.236484</v>
+        <v>64383.236484000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.884232</v>
+        <v>17.884232000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.550000</v>
+        <v>1451.55</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.171000</v>
+        <v>-364.17099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>64394.211462</v>
+        <v>64394.211461999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.887281</v>
+        <v>17.887281000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.750000</v>
+        <v>1538.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.534000</v>
+        <v>-608.53399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>64405.502923</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.890417</v>
+        <v>17.890416999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.180000</v>
+        <v>1695.18</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.240000</v>
+        <v>-1045.24</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>64415.833560</v>
+        <v>64415.833559999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.893287</v>
+        <v>17.893287000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1991.870000</v>
+        <v>1991.87</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1799.030000</v>
+        <v>-1799.03</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>64426.721739</v>
+        <v>64426.721739000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.896312</v>
+        <v>17.896312000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.300000</v>
+        <v>2382.3000000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2662.260000</v>
+        <v>-2662.26</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>64437.628762</v>
@@ -3790,225 +4206,225 @@
         <v>17.899341</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.770000</v>
+        <v>2864.77</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3604.520000</v>
+        <v>-3604.52</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>64450.143322</v>
+        <v>64450.143322000004</v>
       </c>
       <c r="CD14" s="1">
         <v>17.902818</v>
       </c>
       <c r="CE14" s="1">
-        <v>4276.530000</v>
+        <v>4276.53</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5837.170000</v>
+        <v>-5837.17</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>64278.587069</v>
+        <v>64278.587069000001</v>
       </c>
       <c r="B15" s="1">
-        <v>17.855163</v>
+        <v>17.855163000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-311.353000</v>
+        <v>-311.35300000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>64289.024383</v>
+        <v>64289.024383000004</v>
       </c>
       <c r="G15" s="1">
         <v>17.858062</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.950000</v>
+        <v>1268.95</v>
       </c>
       <c r="I15" s="1">
-        <v>-268.382000</v>
+        <v>-268.38200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>64299.492977</v>
+        <v>64299.492977000002</v>
       </c>
       <c r="L15" s="1">
-        <v>17.860970</v>
+        <v>17.860969999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.810000</v>
+        <v>1305.81</v>
       </c>
       <c r="N15" s="1">
-        <v>-206.098000</v>
+        <v>-206.09800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>64309.743299</v>
+        <v>64309.743299000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.863818</v>
+        <v>17.863817999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S15" s="1">
-        <v>-187.678000</v>
+        <v>-187.678</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>64320.330906</v>
+        <v>64320.330906000003</v>
       </c>
       <c r="V15" s="1">
-        <v>17.866759</v>
+        <v>17.866758999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.690000</v>
+        <v>1331.69</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.787000</v>
+        <v>-173.78700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>64330.605497</v>
+        <v>64330.605496999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.869613</v>
+        <v>17.869613000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.470000</v>
+        <v>1349.47</v>
       </c>
       <c r="AC15" s="1">
-        <v>-171.102000</v>
+        <v>-171.102</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>64340.615787</v>
+        <v>64340.615787000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.872393</v>
+        <v>17.872392999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.870000</v>
+        <v>1362.87</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.531000</v>
+        <v>-180.53100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>64350.779646</v>
+        <v>64350.779646000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.875217</v>
+        <v>17.875216999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.086000</v>
+        <v>-210.08600000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>64361.555359</v>
+        <v>64361.555358999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.878210</v>
+        <v>17.878209999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.492000</v>
+        <v>-253.49199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>64372.559633</v>
+        <v>64372.559632999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.881267</v>
+        <v>17.881267000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.750000</v>
+        <v>1431.75</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.744000</v>
+        <v>-312.74400000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>64383.951714</v>
+        <v>64383.951714000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.884431</v>
+        <v>17.884430999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.148000</v>
+        <v>-364.14800000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>64394.933650</v>
+        <v>64394.933649999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.887482</v>
+        <v>17.887481999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.506000</v>
+        <v>-608.50599999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>64405.878885</v>
+        <v>64405.878884999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.890522</v>
+        <v>17.890522000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.240000</v>
+        <v>-1045.24</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>64416.255159</v>
@@ -4017,407 +4433,407 @@
         <v>17.893404</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.910000</v>
+        <v>1991.91</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1799.050000</v>
+        <v>-1799.05</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>64427.133416</v>
+        <v>64427.133415999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.896426</v>
+        <v>17.896426000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.220000</v>
+        <v>2382.2199999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2662.370000</v>
+        <v>-2662.37</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>64438.389162</v>
+        <v>64438.389161999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.899553</v>
+        <v>17.899553000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2864.760000</v>
+        <v>2864.76</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3604.900000</v>
+        <v>-3604.9</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>64450.344234</v>
+        <v>64450.344233999997</v>
       </c>
       <c r="CD15" s="1">
         <v>17.902873</v>
       </c>
       <c r="CE15" s="1">
-        <v>4266.220000</v>
+        <v>4266.22</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5847.860000</v>
+        <v>-5847.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>64278.929308</v>
+        <v>64278.929307999999</v>
       </c>
       <c r="B16" s="1">
-        <v>17.855258</v>
+        <v>17.855257999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.550000</v>
+        <v>1242.55</v>
       </c>
       <c r="D16" s="1">
-        <v>-311.318000</v>
+        <v>-311.31799999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>64289.367614</v>
+        <v>64289.367614000003</v>
       </c>
       <c r="G16" s="1">
         <v>17.858158</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.940000</v>
+        <v>1268.94</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.244000</v>
+        <v>-269.24400000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>64299.915569</v>
+        <v>64299.915568999997</v>
       </c>
       <c r="L16" s="1">
-        <v>17.861088</v>
+        <v>17.861087999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.920000</v>
+        <v>1305.92</v>
       </c>
       <c r="N16" s="1">
-        <v>-206.065000</v>
+        <v>-206.065</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>64310.169333</v>
+        <v>64310.169332999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.863936</v>
+        <v>17.863935999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="S16" s="1">
-        <v>-187.663000</v>
+        <v>-187.66300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>64320.608629</v>
+        <v>64320.608629000002</v>
       </c>
       <c r="V16" s="1">
-        <v>17.866836</v>
+        <v>17.866835999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.440000</v>
+        <v>1331.44</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.547000</v>
+        <v>-173.547</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>64330.821257</v>
+        <v>64330.821257000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.869673</v>
+        <v>17.869672999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.470000</v>
+        <v>1349.47</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.201000</v>
+        <v>-171.20099999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>64340.959979</v>
+        <v>64340.959978999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.872489</v>
+        <v>17.872489000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.536000</v>
+        <v>-180.536</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>64351.129741</v>
+        <v>64351.129740999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.875314</v>
+        <v>17.875313999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.103000</v>
+        <v>-210.10300000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>64361.918926</v>
+        <v>64361.918925999998</v>
       </c>
       <c r="AP16" s="1">
         <v>17.878311</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.478000</v>
+        <v>-253.47800000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>64373.288258</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.881469</v>
+        <v>17.881468999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.730000</v>
+        <v>1431.73</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.752000</v>
+        <v>-312.75200000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>64384.313329</v>
+        <v>64384.313328999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.884531</v>
+        <v>17.884530999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.150000</v>
+        <v>-364.15</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>64395.295715</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.887582</v>
+        <v>17.887581999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.760000</v>
+        <v>1538.76</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.481000</v>
+        <v>-608.48099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>64406.252836</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.890626</v>
+        <v>17.890626000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>64416.964479</v>
+        <v>64416.964479000002</v>
       </c>
       <c r="BO16" s="1">
         <v>17.893601</v>
       </c>
       <c r="BP16" s="1">
-        <v>1991.760000</v>
+        <v>1991.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1798.870000</v>
+        <v>-1798.87</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>64427.877417</v>
+        <v>64427.877417000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.896633</v>
+        <v>17.896633000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.310000</v>
+        <v>2382.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2662.480000</v>
+        <v>-2662.48</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>64438.522553</v>
+        <v>64438.522553000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.899590</v>
+        <v>17.89959</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2865.240000</v>
+        <v>2865.24</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3604.530000</v>
+        <v>-3604.53</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>64450.864543</v>
+        <v>64450.864543000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.903018</v>
+        <v>17.903017999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4268.060000</v>
+        <v>4268.0600000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5845.290000</v>
+        <v>-5845.29</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>64279.272572</v>
+        <v>64279.272572000002</v>
       </c>
       <c r="B17" s="1">
-        <v>17.855353</v>
+        <v>17.855353000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.430000</v>
+        <v>-311.43</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>64289.784773</v>
+        <v>64289.784772999999</v>
       </c>
       <c r="G17" s="1">
-        <v>17.858274</v>
+        <v>17.858274000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.420000</v>
+        <v>1269.42</v>
       </c>
       <c r="I17" s="1">
-        <v>-269.362000</v>
+        <v>-269.36200000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>64300.207680</v>
+        <v>64300.20768</v>
       </c>
       <c r="L17" s="1">
         <v>17.861169</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.670000</v>
+        <v>1305.67</v>
       </c>
       <c r="N17" s="1">
-        <v>-205.981000</v>
+        <v>-205.98099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>64310.443122</v>
+        <v>64310.443121999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.864012</v>
+        <v>17.864011999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.080000</v>
+        <v>1318.08</v>
       </c>
       <c r="S17" s="1">
-        <v>-187.629000</v>
+        <v>-187.62899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>64320.952853</v>
+        <v>64320.952853000003</v>
       </c>
       <c r="V17" s="1">
-        <v>17.866931</v>
+        <v>17.866931000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.300000</v>
+        <v>1331.3</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.701000</v>
+        <v>-173.70099999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>64331.154073</v>
+        <v>64331.154072999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.869765</v>
+        <v>17.869765000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.550000</v>
+        <v>1349.55</v>
       </c>
       <c r="AC17" s="1">
-        <v>-171.131000</v>
+        <v>-171.131</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>64341.301754</v>
@@ -4426,330 +4842,330 @@
         <v>17.872584</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.710000</v>
+        <v>1362.71</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.707000</v>
+        <v>-180.70699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>64351.827324</v>
+        <v>64351.827323999998</v>
       </c>
       <c r="AK17" s="1">
         <v>17.875508</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.110000</v>
+        <v>-210.11</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>64362.645323</v>
+        <v>64362.645322999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.878513</v>
+        <v>17.878513000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.430000</v>
+        <v>1406.43</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.484000</v>
+        <v>-253.48400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>64373.679108</v>
+        <v>64373.679107999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.881578</v>
+        <v>17.881578000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.718000</v>
+        <v>-312.71800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>64384.672433</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.884631</v>
+        <v>17.884630999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.133000</v>
+        <v>-364.13299999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>64395.656850</v>
+        <v>64395.656849999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.887682</v>
+        <v>17.887682000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.750000</v>
+        <v>1538.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.507000</v>
+        <v>-608.50699999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>64406.931895</v>
+        <v>64406.931895000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.890814</v>
+        <v>17.890813999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.180000</v>
+        <v>1695.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.220000</v>
+        <v>-1045.22</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>64417.091414</v>
+        <v>64417.091414000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.893637</v>
+        <v>17.893636999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1991.700000</v>
+        <v>1991.7</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1798.980000</v>
+        <v>-1798.98</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>64427.991497</v>
+        <v>64427.991497000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.896664</v>
+        <v>17.896664000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.470000</v>
+        <v>2382.4699999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2662.470000</v>
+        <v>-2662.47</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>64438.950107</v>
+        <v>64438.950106999997</v>
       </c>
       <c r="BY17" s="1">
         <v>17.899708</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2865.220000</v>
+        <v>2865.22</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3604.010000</v>
+        <v>-3604.01</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>64451.414570</v>
+        <v>64451.414570000001</v>
       </c>
       <c r="CD17" s="1">
         <v>17.903171</v>
       </c>
       <c r="CE17" s="1">
-        <v>4270.400000</v>
+        <v>4270.3999999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5837.280000</v>
+        <v>-5837.28</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>64279.705547</v>
+        <v>64279.705546999998</v>
       </c>
       <c r="B18" s="1">
-        <v>17.855474</v>
+        <v>17.855474000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-311.539000</v>
+        <v>-311.53899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64290.067470</v>
+        <v>64290.067470000002</v>
       </c>
       <c r="G18" s="1">
         <v>17.858352</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.120000</v>
+        <v>1269.1199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.601000</v>
+        <v>-268.601</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>64300.551440</v>
+        <v>64300.551440000003</v>
       </c>
       <c r="L18" s="1">
-        <v>17.861264</v>
+        <v>17.861263999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.880000</v>
+        <v>1305.8800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-206.147000</v>
+        <v>-206.14699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>64310.790323</v>
+        <v>64310.790323000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.864108</v>
+        <v>17.864108000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.150000</v>
+        <v>1318.15</v>
       </c>
       <c r="S18" s="1">
-        <v>-187.631000</v>
+        <v>-187.631</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>64321.295093</v>
+        <v>64321.295093000001</v>
       </c>
       <c r="V18" s="1">
-        <v>17.867026</v>
+        <v>17.867025999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.760000</v>
+        <v>1331.76</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.637000</v>
+        <v>-173.637</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>64331.845494</v>
+        <v>64331.845494000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.869957</v>
+        <v>17.869956999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.660000</v>
+        <v>1349.66</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.010000</v>
+        <v>-171.01</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>64341.989706</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.872775</v>
+        <v>17.872775000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.760000</v>
+        <v>1362.76</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.539000</v>
+        <v>-180.53899999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>64352.175517</v>
+        <v>64352.175517000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.875604</v>
+        <v>17.875603999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.128000</v>
+        <v>-210.12799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>64363.023517</v>
+        <v>64363.023517000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.878618</v>
+        <v>17.878617999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.500000</v>
+        <v>-253.5</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>64374.047600</v>
+        <v>64374.047599999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.881680</v>
+        <v>17.881679999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.730000</v>
+        <v>1431.73</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.741000</v>
+        <v>-312.74099999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>64385.341008</v>
+        <v>64385.341008000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.884817</v>
+        <v>17.884817000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.081000</v>
+        <v>-364.08100000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>64396.320947</v>
@@ -4758,210 +5174,210 @@
         <v>17.887867</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.750000</v>
+        <v>1538.75</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.482000</v>
+        <v>-608.48199999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>64407.045475</v>
+        <v>64407.045474999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>17.890846</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.140000</v>
+        <v>-1045.1400000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>64417.500117</v>
+        <v>64417.500117000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.893750</v>
+        <v>17.893750000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1991.880000</v>
+        <v>1991.88</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1798.970000</v>
+        <v>-1798.97</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>64428.430491</v>
+        <v>64428.430490999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.896786</v>
+        <v>17.896785999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.500000</v>
+        <v>2382.5</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2661.980000</v>
+        <v>-2661.98</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>64439.365784</v>
+        <v>64439.365784000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.899824</v>
+        <v>17.899823999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2865.210000</v>
+        <v>2865.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3603.830000</v>
+        <v>-3603.83</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>64451.944327</v>
+        <v>64451.944326999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.903318</v>
+        <v>17.903317999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4265.250000</v>
+        <v>4265.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5853.340000</v>
+        <v>-5853.34</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>64279.972891</v>
+        <v>64279.972890999998</v>
       </c>
       <c r="B19" s="1">
-        <v>17.855548</v>
+        <v>17.855547999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.560000</v>
+        <v>1242.56</v>
       </c>
       <c r="D19" s="1">
-        <v>-311.229000</v>
+        <v>-311.22899999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>64290.407727</v>
+        <v>64290.407726999998</v>
       </c>
       <c r="G19" s="1">
-        <v>17.858447</v>
+        <v>17.858447000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.070000</v>
+        <v>1269.07</v>
       </c>
       <c r="I19" s="1">
-        <v>-269.466000</v>
+        <v>-269.46600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>64300.898607</v>
+        <v>64300.898607000003</v>
       </c>
       <c r="L19" s="1">
-        <v>17.861361</v>
+        <v>17.861360999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.950000</v>
+        <v>1305.95</v>
       </c>
       <c r="N19" s="1">
-        <v>-205.984000</v>
+        <v>-205.98400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>64311.140034</v>
+        <v>64311.140033999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.864206</v>
+        <v>17.864205999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.120000</v>
+        <v>1318.12</v>
       </c>
       <c r="S19" s="1">
-        <v>-187.732000</v>
+        <v>-187.732</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>64321.982378</v>
+        <v>64321.982378000001</v>
       </c>
       <c r="V19" s="1">
         <v>17.867217</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.955000</v>
+        <v>-173.95500000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>64332.194182</v>
+        <v>64332.194181999999</v>
       </c>
       <c r="AA19" s="1">
         <v>17.870054</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.490000</v>
+        <v>1349.49</v>
       </c>
       <c r="AC19" s="1">
-        <v>-171.303000</v>
+        <v>-171.303</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>64342.334427</v>
+        <v>64342.334427000002</v>
       </c>
       <c r="AF19" s="1">
         <v>17.872871</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.645000</v>
+        <v>-180.64500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>64352.522715</v>
+        <v>64352.522714999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.875701</v>
+        <v>17.875700999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.110000</v>
+        <v>1384.11</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.116000</v>
+        <v>-210.11600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>64363.413385</v>
@@ -4970,542 +5386,542 @@
         <v>17.878726</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.475000</v>
+        <v>-253.47499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>64374.721663</v>
+        <v>64374.721662999997</v>
       </c>
       <c r="AU19" s="1">
         <v>17.881867</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.750000</v>
+        <v>1431.75</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.719000</v>
+        <v>-312.71899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>64385.743327</v>
+        <v>64385.743326999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>17.884929</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.133000</v>
+        <v>-364.13299999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>64396.774785</v>
+        <v>64396.774785000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.887993</v>
+        <v>17.887993000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.780000</v>
+        <v>1538.78</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.485000</v>
+        <v>-608.48500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>64407.412980</v>
+        <v>64407.412980000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.890948</v>
+        <v>17.890948000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.140000</v>
+        <v>1695.14</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>64417.895925</v>
+        <v>64417.895924999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.893860</v>
+        <v>17.89386</v>
       </c>
       <c r="BP19" s="1">
-        <v>1991.960000</v>
+        <v>1991.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1798.920000</v>
+        <v>-1798.92</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>64428.843133</v>
+        <v>64428.843133000002</v>
       </c>
       <c r="BT19" s="1">
         <v>17.896901</v>
       </c>
       <c r="BU19" s="1">
-        <v>2382.410000</v>
+        <v>2382.41</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2662.620000</v>
+        <v>-2662.62</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>64439.815165</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.899949</v>
+        <v>17.899948999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2864.890000</v>
+        <v>2864.89</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3603.950000</v>
+        <v>-3603.95</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>64452.462120</v>
+        <v>64452.462119999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.903462</v>
+        <v>17.903462000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4278.890000</v>
+        <v>4278.8900000000003</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5856.910000</v>
+        <v>-5856.91</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>64280.315174</v>
+        <v>64280.315174000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.855643</v>
+        <v>17.855643000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.980000</v>
+        <v>1242.98</v>
       </c>
       <c r="D20" s="1">
-        <v>-311.674000</v>
+        <v>-311.67399999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>64290.750957</v>
+        <v>64290.750956999997</v>
       </c>
       <c r="G20" s="1">
         <v>17.858542</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.730000</v>
+        <v>1268.73</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.392000</v>
+        <v>-269.392</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>64301.592014</v>
+        <v>64301.592014000002</v>
       </c>
       <c r="L20" s="1">
-        <v>17.861553</v>
+        <v>17.861553000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.810000</v>
+        <v>1305.81</v>
       </c>
       <c r="N20" s="1">
-        <v>-206.192000</v>
+        <v>-206.19200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>64311.836881</v>
+        <v>64311.836881000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.864399</v>
+        <v>17.864398999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S20" s="1">
-        <v>-187.684000</v>
+        <v>-187.684</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>64322.326275</v>
+        <v>64322.326274999999</v>
       </c>
       <c r="V20" s="1">
-        <v>17.867313</v>
+        <v>17.867312999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.480000</v>
+        <v>1331.48</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.598000</v>
+        <v>-173.59800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>64332.548017</v>
+        <v>64332.548017000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.870152</v>
+        <v>17.870152000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.550000</v>
+        <v>1349.55</v>
       </c>
       <c r="AC20" s="1">
-        <v>-171.150000</v>
+        <v>-171.15</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>64342.676136</v>
+        <v>64342.676136000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.872966</v>
+        <v>17.872966000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.575000</v>
+        <v>-180.57499999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>64353.177932</v>
+        <v>64353.177931999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.875883</v>
+        <v>17.875883000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.131000</v>
+        <v>-210.131</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>64364.159871</v>
+        <v>64364.159871000003</v>
       </c>
       <c r="AP20" s="1">
         <v>17.878933</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.400000</v>
+        <v>1406.4</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.476000</v>
+        <v>-253.476</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>64375.173551</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.881993</v>
+        <v>17.881993000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.740000</v>
+        <v>1431.74</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.729000</v>
+        <v>-312.72899999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>64386.133616</v>
+        <v>64386.133615999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.885037</v>
+        <v>17.885037000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.117000</v>
+        <v>-364.11700000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>64397.134880</v>
+        <v>64397.134879999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.888093</v>
+        <v>17.888093000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.760000</v>
+        <v>1538.76</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.522000</v>
+        <v>-608.52200000000005</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>64407.788482</v>
+        <v>64407.788482000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.891052</v>
+        <v>17.891051999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.240000</v>
+        <v>-1045.24</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>64418.326452</v>
+        <v>64418.326452000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.893980</v>
+        <v>17.893979999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1991.860000</v>
+        <v>1991.86</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1798.750000</v>
+        <v>-1798.75</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>64429.274653</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.897021</v>
+        <v>17.897020999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2382.560000</v>
+        <v>2382.56</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2661.960000</v>
+        <v>-2661.96</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>64440.235239</v>
+        <v>64440.235239000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.900065</v>
+        <v>17.900065000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2865.320000</v>
+        <v>2865.32</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3604.480000</v>
+        <v>-3604.48</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>64452.980471</v>
+        <v>64452.980471000003</v>
       </c>
       <c r="CD20" s="1">
         <v>17.903606</v>
       </c>
       <c r="CE20" s="1">
-        <v>4282.400000</v>
+        <v>4282.3999999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5843.450000</v>
+        <v>-5843.45</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>64280.999609</v>
+        <v>64280.999608999999</v>
       </c>
       <c r="B21" s="1">
-        <v>17.855833</v>
+        <v>17.855833000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="D21" s="1">
-        <v>-311.132000</v>
+        <v>-311.13200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>64291.440428</v>
+        <v>64291.440428000002</v>
       </c>
       <c r="G21" s="1">
-        <v>17.858733</v>
+        <v>17.858733000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I21" s="1">
-        <v>-269.406000</v>
+        <v>-269.40600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>64301.940213</v>
+        <v>64301.940213000002</v>
       </c>
       <c r="L21" s="1">
-        <v>17.861650</v>
+        <v>17.861650000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.820000</v>
+        <v>1305.82</v>
       </c>
       <c r="N21" s="1">
-        <v>-206.210000</v>
+        <v>-206.21</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>64312.187072</v>
+        <v>64312.187072000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.864496</v>
+        <v>17.864495999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.030000</v>
+        <v>1318.03</v>
       </c>
       <c r="S21" s="1">
-        <v>-187.626000</v>
+        <v>-187.626</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>64322.669045</v>
+        <v>64322.669045000002</v>
       </c>
       <c r="V21" s="1">
-        <v>17.867408</v>
+        <v>17.867408000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.630000</v>
+        <v>1331.63</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.826000</v>
+        <v>-173.82599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>64333.215476</v>
+        <v>64333.215475999998</v>
       </c>
       <c r="AA21" s="1">
         <v>17.870338</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC21" s="1">
-        <v>-171.209000</v>
+        <v>-171.209</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>64343.343783</v>
+        <v>64343.343782999997</v>
       </c>
       <c r="AF21" s="1">
         <v>17.873151</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.657000</v>
+        <v>-180.65700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>64353.568810</v>
+        <v>64353.568809999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.875991</v>
+        <v>17.875990999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.115000</v>
+        <v>-210.11500000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>64364.493203</v>
+        <v>64364.493202999998</v>
       </c>
       <c r="AP21" s="1">
         <v>17.879026</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.420000</v>
+        <v>1406.42</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.466000</v>
+        <v>-253.46600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>64375.537121</v>
+        <v>64375.537121000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.882094</v>
+        <v>17.882093999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.762000</v>
+        <v>-312.762</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>64386.491726</v>
@@ -5514,120 +5930,120 @@
         <v>17.885137</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.630000</v>
+        <v>1451.63</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.129000</v>
+        <v>-364.12900000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>64397.493030</v>
+        <v>64397.493029999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.888193</v>
+        <v>17.888193000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.525000</v>
+        <v>-608.52499999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>64408.215010</v>
+        <v>64408.21501</v>
       </c>
       <c r="BJ21" s="1">
         <v>17.891171</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.080000</v>
+        <v>1695.08</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.270000</v>
+        <v>-1045.27</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>64418.727748</v>
+        <v>64418.727747999998</v>
       </c>
       <c r="BO21" s="1">
         <v>17.894091</v>
       </c>
       <c r="BP21" s="1">
-        <v>1991.810000</v>
+        <v>1991.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1798.730000</v>
+        <v>-1798.73</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>64429.702694</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.897140</v>
+        <v>17.89714</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.250000</v>
+        <v>2382.25</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2662.300000</v>
+        <v>-2662.3</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>64440.660809</v>
+        <v>64440.660809000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.900184</v>
+        <v>17.900183999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.240000</v>
+        <v>2865.24</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3604.200000</v>
+        <v>-3604.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>64453.499751</v>
+        <v>64453.499751000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.903750</v>
+        <v>17.903749999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4285.770000</v>
+        <v>4285.7700000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5850.180000</v>
+        <v>-5850.18</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>64281.343833</v>
+        <v>64281.343832999999</v>
       </c>
       <c r="B22" s="1">
         <v>17.855929</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.580000</v>
+        <v>1242.58</v>
       </c>
       <c r="D22" s="1">
-        <v>-311.087000</v>
+        <v>-311.08699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>64291.784924</v>
@@ -5636,420 +6052,420 @@
         <v>17.858829</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.470000</v>
+        <v>1268.47</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.893000</v>
+        <v>-268.89299999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>64302.284958</v>
+        <v>64302.284957999997</v>
       </c>
       <c r="L22" s="1">
         <v>17.861746</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N22" s="1">
-        <v>-205.950000</v>
+        <v>-205.95</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>64312.533098</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.864593</v>
+        <v>17.864592999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.020000</v>
+        <v>1318.02</v>
       </c>
       <c r="S22" s="1">
-        <v>-187.569000</v>
+        <v>-187.56899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>64323.328195</v>
+        <v>64323.328195000002</v>
       </c>
       <c r="V22" s="1">
-        <v>17.867591</v>
+        <v>17.867591000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.553000</v>
+        <v>-173.553</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>64333.594885</v>
+        <v>64333.594884999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.870443</v>
+        <v>17.870443000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.500000</v>
+        <v>1349.5</v>
       </c>
       <c r="AC22" s="1">
-        <v>-171.021000</v>
+        <v>-171.02099999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>64343.705335</v>
+        <v>64343.705334999999</v>
       </c>
       <c r="AF22" s="1">
         <v>17.873251</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.950000</v>
+        <v>1362.95</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.570000</v>
+        <v>-180.57</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>64353.918458</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.876088</v>
+        <v>17.876087999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.110000</v>
+        <v>-210.11</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>64364.855249</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.879126</v>
+        <v>17.879125999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.400000</v>
+        <v>1406.4</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.465000</v>
+        <v>-253.465</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>64375.902636</v>
+        <v>64375.902635999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.882195</v>
+        <v>17.882194999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.760000</v>
+        <v>1431.76</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.732000</v>
+        <v>-312.73200000000003</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>64386.908365</v>
+        <v>64386.908365000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.885252</v>
+        <v>17.885252000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.106000</v>
+        <v>-364.10599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>64398.041071</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.888345</v>
+        <v>17.888345000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.770000</v>
+        <v>1538.77</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.498000</v>
+        <v>-608.49800000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>64408.536946</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.891260</v>
+        <v>17.891259999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.200000</v>
+        <v>1695.2</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.230000</v>
+        <v>-1045.23</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>64419.132947</v>
+        <v>64419.132946999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.894204</v>
+        <v>17.894203999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1991.760000</v>
+        <v>1991.76</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1798.910000</v>
+        <v>-1798.91</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>64430.113876</v>
+        <v>64430.113876000003</v>
       </c>
       <c r="BT22" s="1">
         <v>17.897254</v>
       </c>
       <c r="BU22" s="1">
-        <v>2382.410000</v>
+        <v>2382.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2662.250000</v>
+        <v>-2662.25</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>64441.107738</v>
+        <v>64441.107737999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.900308</v>
+        <v>17.900307999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.010000</v>
+        <v>2865.01</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3602.880000</v>
+        <v>-3602.88</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>64454.054277</v>
+        <v>64454.054277000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.903904</v>
+        <v>17.903904000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4275.210000</v>
+        <v>4275.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5855.530000</v>
+        <v>-5855.53</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>64281.687561</v>
+        <v>64281.687560999999</v>
       </c>
       <c r="B23" s="1">
-        <v>17.856024</v>
+        <v>17.856024000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="D23" s="1">
-        <v>-311.434000</v>
+        <v>-311.43400000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>64292.129371</v>
+        <v>64292.129371000003</v>
       </c>
       <c r="G23" s="1">
-        <v>17.858925</v>
+        <v>17.858924999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.950000</v>
+        <v>1268.95</v>
       </c>
       <c r="I23" s="1">
-        <v>-269.329000</v>
+        <v>-269.32900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>64302.930718</v>
+        <v>64302.930718000003</v>
       </c>
       <c r="L23" s="1">
-        <v>17.861925</v>
+        <v>17.861924999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.050000</v>
+        <v>1306.05</v>
       </c>
       <c r="N23" s="1">
-        <v>-205.860000</v>
+        <v>-205.86</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>64313.209311</v>
+        <v>64313.209310999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.864780</v>
+        <v>17.86478</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="S23" s="1">
-        <v>-187.653000</v>
+        <v>-187.65299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>64323.700689</v>
+        <v>64323.700688999998</v>
       </c>
       <c r="V23" s="1">
-        <v>17.867695</v>
+        <v>17.867695000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.755000</v>
+        <v>-173.755</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>64333.945092</v>
+        <v>64333.945092000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.870540</v>
+        <v>17.870539999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.340000</v>
+        <v>1349.34</v>
       </c>
       <c r="AC23" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>64344.051544</v>
+        <v>64344.051544000002</v>
       </c>
       <c r="AF23" s="1">
         <v>17.873348</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.723000</v>
+        <v>-180.72300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>64354.266649</v>
+        <v>64354.266648999997</v>
       </c>
       <c r="AK23" s="1">
         <v>17.876185</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.133000</v>
+        <v>-210.13300000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>64365.279323</v>
+        <v>64365.279323000002</v>
       </c>
       <c r="AP23" s="1">
         <v>17.879244</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.410000</v>
+        <v>1406.41</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.444000</v>
+        <v>-253.44399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>64376.326716</v>
+        <v>64376.326716000003</v>
       </c>
       <c r="AU23" s="1">
         <v>17.882313</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.733000</v>
+        <v>-312.733</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>64387.210925</v>
+        <v>64387.210924999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.885336</v>
+        <v>17.885335999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.630000</v>
+        <v>1451.63</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.083000</v>
+        <v>-364.08300000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>64398.219137</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.888394</v>
+        <v>17.888394000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.780000</v>
+        <v>1538.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.483000</v>
+        <v>-608.48299999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>64408.914374</v>
@@ -6058,846 +6474,847 @@
         <v>17.891365</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.190000</v>
+        <v>1695.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.190000</v>
+        <v>-1045.19</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>64419.531266</v>
+        <v>64419.531265999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.894314</v>
+        <v>17.894314000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1991.690000</v>
+        <v>1991.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1798.660000</v>
+        <v>-1798.66</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>64430.546425</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.897374</v>
+        <v>17.897373999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.250000</v>
+        <v>2382.25</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2662.470000</v>
+        <v>-2662.47</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>64441.539750</v>
+        <v>64441.539750000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.900428</v>
+        <v>17.900428000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2864.650000</v>
+        <v>2864.65</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3603.420000</v>
+        <v>-3603.42</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>64454.581063</v>
+        <v>64454.581062999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.904050</v>
+        <v>17.904050000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4283.220000</v>
+        <v>4283.22</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5844.570000</v>
+        <v>-5844.57</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>64282.337320</v>
+        <v>64282.337319999999</v>
       </c>
       <c r="B24" s="1">
-        <v>17.856205</v>
+        <v>17.856204999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="D24" s="1">
-        <v>-311.030000</v>
+        <v>-311.02999999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>64292.801479</v>
+        <v>64292.801479000002</v>
       </c>
       <c r="G24" s="1">
         <v>17.859112</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I24" s="1">
-        <v>-269.614000</v>
+        <v>-269.61399999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>64303.320084</v>
+        <v>64303.320083999999</v>
       </c>
       <c r="L24" s="1">
         <v>17.862033</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.670000</v>
+        <v>1305.67</v>
       </c>
       <c r="N24" s="1">
-        <v>-205.895000</v>
+        <v>-205.89500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>64313.580814</v>
+        <v>64313.580814000001</v>
       </c>
       <c r="Q24" s="1">
         <v>17.864884</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S24" s="1">
-        <v>-187.720000</v>
+        <v>-187.72</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>64324.045440</v>
+        <v>64324.045440000002</v>
       </c>
       <c r="V24" s="1">
-        <v>17.867790</v>
+        <v>17.867789999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.430000</v>
+        <v>1331.43</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.639000</v>
+        <v>-173.63900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>64334.287299</v>
+        <v>64334.287299000003</v>
       </c>
       <c r="AA24" s="1">
         <v>17.870635</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.600000</v>
+        <v>1349.6</v>
       </c>
       <c r="AC24" s="1">
-        <v>-171.157000</v>
+        <v>-171.15700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>64344.398752</v>
+        <v>64344.398752000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.873444</v>
+        <v>17.873443999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.870000</v>
+        <v>1362.87</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.758000</v>
+        <v>-180.75800000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>64354.694233</v>
+        <v>64354.694233000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.876304</v>
+        <v>17.876304000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.030000</v>
+        <v>1384.03</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.107000</v>
+        <v>-210.107</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>64365.571465</v>
+        <v>64365.571465000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.879325</v>
+        <v>17.879325000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.410000</v>
+        <v>1406.41</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.486000</v>
+        <v>-253.48599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>64376.632251</v>
+        <v>64376.632251000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.882398</v>
+        <v>17.882397999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.730000</v>
+        <v>1431.73</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.703000</v>
+        <v>-312.70299999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>64387.568046</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.885436</v>
+        <v>17.885435999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.560000</v>
+        <v>1451.56</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.105000</v>
+        <v>-364.10500000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>64398.581215</v>
+        <v>64398.581214999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.888495</v>
+        <v>17.888494999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.730000</v>
+        <v>1538.73</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.522000</v>
+        <v>-608.52200000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>64409.312161</v>
+        <v>64409.312161000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.891476</v>
+        <v>17.891476000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.100000</v>
+        <v>-1045.0999999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>64419.959815</v>
+        <v>64419.959815000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.894433</v>
+        <v>17.894432999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1991.790000</v>
+        <v>1991.79</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1798.600000</v>
+        <v>-1798.6</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>64430.989852</v>
+        <v>64430.989851999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.897497</v>
+        <v>17.897497000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2382.400000</v>
+        <v>2382.4</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2661.830000</v>
+        <v>-2661.83</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>64441.960362</v>
+        <v>64441.960361999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.900545</v>
+        <v>17.900545000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2864.880000</v>
+        <v>2864.88</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3603.720000</v>
+        <v>-3603.72</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>64455.101828</v>
+        <v>64455.101827999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.904195</v>
+        <v>17.904195000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4266.260000</v>
+        <v>4266.26</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5841.910000</v>
+        <v>-5841.91</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>64282.710312</v>
+        <v>64282.710312000003</v>
       </c>
       <c r="B25" s="1">
-        <v>17.856308</v>
+        <v>17.856307999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-311.473000</v>
+        <v>-311.47300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>64293.162506</v>
+        <v>64293.162506000001</v>
       </c>
       <c r="G25" s="1">
-        <v>17.859212</v>
+        <v>17.859211999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.950000</v>
+        <v>1267.95</v>
       </c>
       <c r="I25" s="1">
-        <v>-269.389000</v>
+        <v>-269.38900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>64303.664299</v>
+        <v>64303.664298999996</v>
       </c>
       <c r="L25" s="1">
-        <v>17.862129</v>
+        <v>17.862128999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-205.895000</v>
+        <v>-205.89500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>64313.971173</v>
+        <v>64313.971172999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.864992</v>
+        <v>17.864992000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.060000</v>
+        <v>1318.06</v>
       </c>
       <c r="S25" s="1">
-        <v>-187.724000</v>
+        <v>-187.72399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>64324.394096</v>
+        <v>64324.394096000004</v>
       </c>
       <c r="V25" s="1">
         <v>17.867887</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.630000</v>
+        <v>1331.63</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.830000</v>
+        <v>-173.83</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>64334.722291</v>
+        <v>64334.722290999998</v>
       </c>
       <c r="AA25" s="1">
         <v>17.870756</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.490000</v>
+        <v>1349.49</v>
       </c>
       <c r="AC25" s="1">
-        <v>-171.217000</v>
+        <v>-171.21700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>64344.835222</v>
+        <v>64344.835222000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.873565</v>
+        <v>17.873564999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.556000</v>
+        <v>-180.55600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>64354.975463</v>
+        <v>64354.975463000002</v>
       </c>
       <c r="AK25" s="1">
         <v>17.876382</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.100000</v>
+        <v>1384.1</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.109000</v>
+        <v>-210.10900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>64365.935071</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.879426</v>
+        <v>17.879425999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.380000</v>
+        <v>1406.38</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.460000</v>
+        <v>-253.46</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>64376.993930</v>
+        <v>64376.993929999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.882498</v>
+        <v>17.882497999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.716000</v>
+        <v>-312.71600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>64387.929628</v>
+        <v>64387.929627999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.885536</v>
+        <v>17.885535999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.560000</v>
+        <v>1451.56</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.056000</v>
+        <v>-364.05599999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>64399.299453</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.888694</v>
+        <v>17.888694000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.740000</v>
+        <v>1538.74</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.474000</v>
+        <v>-608.47400000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>64410.065585</v>
+        <v>64410.065584999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.891685</v>
+        <v>17.891684999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.110000</v>
+        <v>-1045.1099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>64420.348674</v>
+        <v>64420.348674000001</v>
       </c>
       <c r="BO25" s="1">
         <v>17.894541</v>
       </c>
       <c r="BP25" s="1">
-        <v>1991.770000</v>
+        <v>1991.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1798.580000</v>
+        <v>-1798.58</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>64431.382147</v>
+        <v>64431.382146999997</v>
       </c>
       <c r="BT25" s="1">
         <v>17.897606</v>
       </c>
       <c r="BU25" s="1">
-        <v>2382.160000</v>
+        <v>2382.16</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2662.010000</v>
+        <v>-2662.01</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>64442.383908</v>
+        <v>64442.383908000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.900662</v>
+        <v>17.900662000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2864.340000</v>
+        <v>2864.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3603.530000</v>
+        <v>-3603.53</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>64455.953688</v>
+        <v>64455.953688000001</v>
       </c>
       <c r="CD25" s="1">
         <v>17.904432</v>
       </c>
       <c r="CE25" s="1">
-        <v>4283.830000</v>
+        <v>4283.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5840.830000</v>
+        <v>-5840.83</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>64283.054039</v>
+        <v>64283.054039000002</v>
       </c>
       <c r="B26" s="1">
-        <v>17.856404</v>
+        <v>17.856404000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-311.316000</v>
+        <v>-311.31599999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>64293.506241</v>
+        <v>64293.506241000003</v>
       </c>
       <c r="G26" s="1">
-        <v>17.859307</v>
+        <v>17.859307000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.230000</v>
+        <v>1269.23</v>
       </c>
       <c r="I26" s="1">
-        <v>-269.014000</v>
+        <v>-269.01400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>64304.013979</v>
+        <v>64304.013979000003</v>
       </c>
       <c r="L26" s="1">
         <v>17.862226</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-205.994000</v>
+        <v>-205.994</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>64314.568881</v>
+        <v>64314.568880999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.865158</v>
+        <v>17.865158000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.990000</v>
+        <v>1317.99</v>
       </c>
       <c r="S26" s="1">
-        <v>-187.580000</v>
+        <v>-187.58</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>64324.834543</v>
+        <v>64324.834542999997</v>
       </c>
       <c r="V26" s="1">
-        <v>17.868010</v>
+        <v>17.868010000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.681000</v>
+        <v>-173.68100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>64334.991618</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.870831</v>
+        <v>17.870830999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.400000</v>
+        <v>1349.4</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.238000</v>
+        <v>-171.238</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>64345.100584</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.873639</v>
+        <v>17.873639000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.520000</v>
+        <v>-180.52</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>64355.320151</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.876478</v>
+        <v>17.876477999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.030000</v>
+        <v>1384.03</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.116000</v>
+        <v>-210.11600000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>64366.296121</v>
+        <v>64366.296120999999</v>
       </c>
       <c r="AP26" s="1">
         <v>17.879527</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.380000</v>
+        <v>1406.38</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.464000</v>
+        <v>-253.464</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>64377.360607</v>
+        <v>64377.360607000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.882600</v>
+        <v>17.8826</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.699000</v>
+        <v>-312.69900000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>64388.652795</v>
+        <v>64388.652795000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.885737</v>
+        <v>17.885736999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.074000</v>
+        <v>-364.07400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>64399.689277</v>
+        <v>64399.689276999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.888803</v>
+        <v>17.888802999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.780000</v>
+        <v>1538.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.521000</v>
+        <v>-608.52099999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>64410.467342</v>
+        <v>64410.467342000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.891796</v>
+        <v>17.891795999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.100000</v>
+        <v>1695.1</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.120000</v>
+        <v>-1045.1199999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>64420.770242</v>
+        <v>64420.770241999999</v>
       </c>
       <c r="BO26" s="1">
         <v>17.894658</v>
       </c>
       <c r="BP26" s="1">
-        <v>1991.680000</v>
+        <v>1991.68</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1798.820000</v>
+        <v>-1798.82</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>64432.132098</v>
+        <v>64432.132098000002</v>
       </c>
       <c r="BT26" s="1">
         <v>17.897814</v>
       </c>
       <c r="BU26" s="1">
-        <v>2382.170000</v>
+        <v>2382.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2662.100000</v>
+        <v>-2662.1</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>64443.143810</v>
+        <v>64443.143810000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.900873</v>
+        <v>17.900873000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.360000</v>
+        <v>2865.36</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3603.110000</v>
+        <v>-3603.11</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>64456.178642</v>
+        <v>64456.178641999999</v>
       </c>
       <c r="CD26" s="1">
         <v>17.904494</v>
       </c>
       <c r="CE26" s="1">
-        <v>4282.350000</v>
+        <v>4282.3500000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5842.010000</v>
+        <v>-5842.01</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>